--- a/训练中心创客交叉融合空间建设/admin/新大楼规划建设/采购表.xlsx
+++ b/训练中心创客交叉融合空间建设/admin/新大楼规划建设/采购表.xlsx
@@ -1,24 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26505"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iCenterStudio/Documents/Git Projects/workzone/训练中心创客交叉融合空间建设/admin/新大楼规划建设/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26680"/>
   </bookViews>
   <sheets>
     <sheet name="教务处350（10月25日）" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'教务处350（10月25日）'!$A$3:$L$3</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'教务处350（10月25日）'!$A$1:$L$129</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'教务处350（10月25日）'!$A$1:$L$132</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="284">
   <si>
     <t>仿真软件</t>
   </si>
@@ -452,18 +462,6 @@
   </si>
   <si>
     <t>教学设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桌面激光机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电焊台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D打印机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1356,22 +1354,99 @@
     <t>教学家具更新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>大屏幕电视</t>
+    <rPh sb="0" eb="1">
+      <t>da ping mu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dian shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Philips</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字设计与剪辑工作站</t>
+    <rPh sb="0" eb="1">
+      <t>shu zi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>she ji</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jian ji</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gong zuo zhan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apple Mac Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锐取S1</t>
+    <rPh sb="0" eb="1">
+      <t>rui qu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频会议显示终端</t>
+    <rPh sb="0" eb="1">
+      <t>shi pin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hui yi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xian shi zhong duan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高清会议摄像机</t>
+    <rPh sb="0" eb="1">
+      <t>gao qing hui yi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>she xiang ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高清视频会议终端</t>
+    <rPh sb="0" eb="1">
+      <t>gao qing shi pin hui yi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhong duan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1379,14 +1454,14 @@
     <font>
       <b/>
       <sz val="14"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1398,13 +1473,13 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1425,7 +1500,7 @@
     <font>
       <b/>
       <sz val="16"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1459,7 +1534,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1473,7 +1548,7 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1486,7 +1561,7 @@
     <font>
       <b/>
       <sz val="20"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1501,21 +1576,21 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1523,7 +1598,7 @@
       <b/>
       <sz val="14"/>
       <color rgb="FFC00000"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1531,7 +1606,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFC00000"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1547,6 +1622,27 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1569,7 +1665,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1639,16 +1735,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1714,26 +1810,26 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1753,13 +1849,52 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1771,7 +1906,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2105,6 +2240,66 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="29" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="29" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="29" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="29" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="29" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="29" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="29" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="29" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2167,12 +2362,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -2202,12 +2397,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -2411,34 +2606,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N166"/>
+  <dimension ref="A1:N169"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="L102" sqref="L102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.1796875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="38.08984375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="32.08984375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7.6328125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19.453125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="38.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="32.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.5" style="3" customWidth="1"/>
     <col min="7" max="7" width="54" style="2" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="19.08984375" style="2" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="11.08984375" style="2" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="16.90625" style="2" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="13.90625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="14.08984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" style="2" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" style="2" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="14.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="114" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B1" s="115"/>
       <c r="C1" s="115"/>
@@ -2452,13 +2647,13 @@
       <c r="K1" s="115"/>
       <c r="L1" s="115"/>
     </row>
-    <row r="2" spans="1:12" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="113" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B2" s="112">
-        <f>SUM(F129)</f>
-        <v>4999192</v>
+        <f>SUM(F132)</f>
+        <v>4805076.8499999996</v>
       </c>
       <c r="C2" s="111"/>
       <c r="D2" s="111"/>
@@ -2471,53 +2666,53 @@
       <c r="K2" s="111"/>
       <c r="L2" s="111"/>
     </row>
-    <row r="3" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="36" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H3" s="32" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="J3" s="32" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K3" s="32" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L3" s="31" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="49">
         <v>1</v>
       </c>
       <c r="B4" s="73" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D4" s="48">
         <v>2</v>
@@ -2531,26 +2726,26 @@
       </c>
       <c r="G4" s="25"/>
       <c r="H4" s="25" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I4" s="46" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J4" s="46"/>
       <c r="K4" s="46" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L4" s="45"/>
     </row>
-    <row r="5" spans="1:12" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="49">
         <v>2</v>
       </c>
       <c r="B5" s="73" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D5" s="48">
         <v>52</v>
@@ -2563,26 +2758,26 @@
         <v>41600</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I5" s="46" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J5" s="46"/>
       <c r="K5" s="46" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L5" s="45"/>
     </row>
-    <row r="6" spans="1:12" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="49">
         <v>3</v>
       </c>
       <c r="B6" s="73" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="48">
@@ -2596,29 +2791,29 @@
         <v>3200</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I6" s="46" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J6" s="46"/>
       <c r="K6" s="46" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L6" s="45"/>
     </row>
-    <row r="7" spans="1:12" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="49">
         <v>4</v>
       </c>
       <c r="B7" s="73" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D7" s="48">
         <v>10</v>
@@ -2631,29 +2826,29 @@
         <v>25000</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I7" s="46" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J7" s="46"/>
       <c r="K7" s="46" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L7" s="45"/>
     </row>
-    <row r="8" spans="1:12" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="49">
         <v>5</v>
       </c>
       <c r="B8" s="73" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D8" s="48">
         <v>3</v>
@@ -2666,26 +2861,26 @@
         <v>600</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I8" s="46" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J8" s="46"/>
       <c r="K8" s="46" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L8" s="45"/>
     </row>
-    <row r="9" spans="1:12" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="49">
         <v>6</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="60">
@@ -2699,24 +2894,24 @@
         <v>30000</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H9" s="24"/>
       <c r="I9" s="46" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J9" s="87"/>
       <c r="K9" s="46" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L9" s="58"/>
     </row>
-    <row r="10" spans="1:12" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="49">
         <v>7</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C10" s="24"/>
       <c r="D10" s="60">
@@ -2732,23 +2927,23 @@
       <c r="G10" s="24"/>
       <c r="H10" s="24"/>
       <c r="I10" s="46" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J10" s="87"/>
       <c r="K10" s="46" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L10" s="58"/>
     </row>
-    <row r="11" spans="1:12" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="108">
         <v>8</v>
       </c>
       <c r="B11" s="83" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C11" s="75" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D11" s="76">
         <v>30</v>
@@ -2761,29 +2956,29 @@
         <v>39000</v>
       </c>
       <c r="G11" s="75" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H11" s="75">
         <v>30</v>
       </c>
       <c r="I11" s="64" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J11" s="75"/>
       <c r="K11" s="75" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="L11" s="74"/>
     </row>
-    <row r="12" spans="1:12" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="108">
         <v>9</v>
       </c>
       <c r="B12" s="83" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C12" s="75" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D12" s="76">
         <v>9</v>
@@ -2796,29 +2991,29 @@
         <v>7200</v>
       </c>
       <c r="G12" s="75" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H12" s="75">
         <v>30</v>
       </c>
       <c r="I12" s="64" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J12" s="75"/>
       <c r="K12" s="75" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="L12" s="74"/>
     </row>
-    <row r="13" spans="1:12" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="108">
         <v>10</v>
       </c>
       <c r="B13" s="83" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C13" s="75" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D13" s="76">
         <v>29</v>
@@ -2831,29 +3026,29 @@
         <v>43500</v>
       </c>
       <c r="G13" s="75" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H13" s="75">
         <v>30</v>
       </c>
       <c r="I13" s="64" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J13" s="75"/>
       <c r="K13" s="75" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="L13" s="74"/>
     </row>
-    <row r="14" spans="1:12" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="108">
         <v>11</v>
       </c>
       <c r="B14" s="83" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C14" s="75" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D14" s="76">
         <v>11</v>
@@ -2866,26 +3061,26 @@
         <v>13200</v>
       </c>
       <c r="G14" s="75" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H14" s="75">
         <v>30</v>
       </c>
       <c r="I14" s="64" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J14" s="75"/>
       <c r="K14" s="75" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="L14" s="74"/>
     </row>
-    <row r="15" spans="1:12" s="110" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" s="110" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="49">
         <v>12</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C15" s="25"/>
       <c r="D15" s="48">
@@ -2899,24 +3094,24 @@
         <v>40000</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H15" s="25"/>
       <c r="I15" s="46" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J15" s="25"/>
       <c r="K15" s="25" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L15" s="45"/>
     </row>
-    <row r="16" spans="1:12" s="110" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" s="110" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="49">
         <v>13</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="48">
@@ -2930,24 +3125,24 @@
         <v>10000</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H16" s="25"/>
       <c r="I16" s="46" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J16" s="25"/>
       <c r="K16" s="25" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L16" s="45"/>
     </row>
-    <row r="17" spans="1:14" s="110" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" s="110" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="49">
         <v>14</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="48">
@@ -2961,24 +3156,24 @@
         <v>19000</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H17" s="25"/>
       <c r="I17" s="46" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J17" s="25"/>
       <c r="K17" s="25" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L17" s="45"/>
     </row>
-    <row r="18" spans="1:14" s="110" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="110" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="49">
         <v>15</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="48">
@@ -2992,24 +3187,24 @@
         <v>24000</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H18" s="25"/>
       <c r="I18" s="46" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J18" s="25"/>
       <c r="K18" s="25" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L18" s="45"/>
     </row>
-    <row r="19" spans="1:14" s="110" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="110" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="49">
         <v>16</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="48">
@@ -3023,24 +3218,24 @@
         <v>8000</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H19" s="25"/>
       <c r="I19" s="46" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J19" s="25"/>
       <c r="K19" s="25" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L19" s="45"/>
     </row>
-    <row r="20" spans="1:14" s="110" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" s="110" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="49">
         <v>17</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="48">
@@ -3054,24 +3249,24 @@
         <v>9500</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H20" s="25"/>
       <c r="I20" s="46" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J20" s="25"/>
       <c r="K20" s="25" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L20" s="45"/>
     </row>
-    <row r="21" spans="1:14" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="49">
         <v>18</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="48">
@@ -3085,24 +3280,24 @@
         <v>1500</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H21" s="25"/>
       <c r="I21" s="46" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J21" s="25"/>
       <c r="K21" s="25" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L21" s="45"/>
     </row>
-    <row r="22" spans="1:14" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="49">
         <v>19</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C22" s="25"/>
       <c r="D22" s="48">
@@ -3116,27 +3311,27 @@
         <v>2000</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H22" s="25"/>
       <c r="I22" s="46" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J22" s="25"/>
       <c r="K22" s="25" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L22" s="45"/>
     </row>
-    <row r="23" spans="1:14" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="108">
         <v>20</v>
       </c>
       <c r="B23" s="84" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C23" s="109" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D23" s="67">
         <v>8</v>
@@ -3149,26 +3344,26 @@
         <v>4800</v>
       </c>
       <c r="G23" s="84" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H23" s="105"/>
       <c r="I23" s="64" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J23" s="104"/>
       <c r="K23" s="104" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L23" s="74"/>
       <c r="M23" s="2"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="1:14" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="108">
         <v>21</v>
       </c>
       <c r="B24" s="84" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C24" s="84"/>
       <c r="D24" s="67">
@@ -3182,29 +3377,29 @@
         <v>2400</v>
       </c>
       <c r="G24" s="84" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H24" s="105"/>
       <c r="I24" s="64" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J24" s="104"/>
       <c r="K24" s="104" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L24" s="74"/>
       <c r="M24" s="2"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="1:14" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="108">
         <v>22</v>
       </c>
       <c r="B25" s="104" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C25" s="104" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D25" s="107">
         <v>130</v>
@@ -3217,31 +3412,31 @@
         <v>10270</v>
       </c>
       <c r="G25" s="104" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H25" s="104">
         <v>7</v>
       </c>
       <c r="I25" s="64" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J25" s="104" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K25" s="104" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L25" s="74"/>
     </row>
-    <row r="26" spans="1:14" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="108">
         <v>23</v>
       </c>
       <c r="B26" s="104" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C26" s="104" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D26" s="107">
         <v>4</v>
@@ -3254,31 +3449,31 @@
         <v>24000</v>
       </c>
       <c r="G26" s="104" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H26" s="104">
         <v>7</v>
       </c>
       <c r="I26" s="64" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J26" s="104" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K26" s="104" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L26" s="74"/>
     </row>
-    <row r="27" spans="1:14" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="108">
         <v>24</v>
       </c>
       <c r="B27" s="104" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C27" s="104" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D27" s="107">
         <v>6</v>
@@ -3291,31 +3486,31 @@
         <v>36000</v>
       </c>
       <c r="G27" s="104" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H27" s="104">
         <v>7</v>
       </c>
       <c r="I27" s="64" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J27" s="104" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K27" s="104" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L27" s="74"/>
     </row>
-    <row r="28" spans="1:14" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="108">
         <v>25</v>
       </c>
       <c r="B28" s="104" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C28" s="104" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D28" s="107">
         <v>6</v>
@@ -3328,31 +3523,31 @@
         <v>9000</v>
       </c>
       <c r="G28" s="104" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H28" s="104">
         <v>30</v>
       </c>
       <c r="I28" s="64" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J28" s="104" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K28" s="104" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L28" s="74"/>
     </row>
-    <row r="29" spans="1:14" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="108">
         <v>26</v>
       </c>
       <c r="B29" s="104" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C29" s="104" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D29" s="107">
         <v>10</v>
@@ -3365,31 +3560,31 @@
         <v>20000</v>
       </c>
       <c r="G29" s="104" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H29" s="105">
         <v>30</v>
       </c>
       <c r="I29" s="64" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J29" s="104" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K29" s="104" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L29" s="74"/>
     </row>
-    <row r="30" spans="1:14" s="44" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" s="44" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="103">
         <v>27</v>
       </c>
       <c r="B30" s="98" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C30" s="98" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D30" s="102">
         <v>4</v>
@@ -3402,36 +3597,36 @@
         <v>4000</v>
       </c>
       <c r="G30" s="98" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H30" s="98">
         <v>7</v>
       </c>
       <c r="I30" s="99" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J30" s="98" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K30" s="98" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L30" s="97"/>
     </row>
-    <row r="31" spans="1:14" s="94" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" s="94" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A31" s="51"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
       <c r="E31" s="38" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F31" s="54">
         <f>SUM(F4:F30)</f>
         <v>431170</v>
       </c>
       <c r="G31" s="53" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H31" s="51"/>
       <c r="I31" s="51"/>
@@ -3439,16 +3634,16 @@
       <c r="K31" s="51"/>
       <c r="L31" s="50"/>
     </row>
-    <row r="32" spans="1:14" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" s="94" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="51"/>
       <c r="B32" s="51"/>
       <c r="C32" s="51"/>
       <c r="D32" s="52"/>
       <c r="E32" s="12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G32" s="51"/>
       <c r="H32" s="51"/>
@@ -3457,7 +3652,7 @@
       <c r="K32" s="51"/>
       <c r="L32" s="50"/>
     </row>
-    <row r="33" spans="1:12" s="94" customFormat="1" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" s="94" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="51"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
@@ -3471,9 +3666,9 @@
       <c r="K33" s="51"/>
       <c r="L33" s="50"/>
     </row>
-    <row r="34" spans="1:12" s="94" customFormat="1" ht="36.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" s="94" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="114" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B34" s="115"/>
       <c r="C34" s="115"/>
@@ -3487,53 +3682,53 @@
       <c r="K34" s="115"/>
       <c r="L34" s="115"/>
     </row>
-    <row r="35" spans="1:12" s="61" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" s="61" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="93" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B35" s="89" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C35" s="89" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D35" s="92" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E35" s="91" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F35" s="90" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G35" s="89" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H35" s="89" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I35" s="89" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J35" s="89" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K35" s="89" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L35" s="88" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="30">
         <v>1</v>
       </c>
       <c r="B36" s="73" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D36" s="48">
         <v>2</v>
@@ -3546,26 +3741,26 @@
         <v>10000</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H36" s="25">
         <v>10</v>
       </c>
       <c r="I36" s="46" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J36" s="46"/>
       <c r="K36" s="46" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L36" s="45"/>
     </row>
-    <row r="37" spans="1:12" s="44" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" s="44" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="30">
         <v>2</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C37" s="24"/>
       <c r="D37" s="60">
@@ -3579,27 +3774,27 @@
         <v>13500</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H37" s="24"/>
       <c r="I37" s="46" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J37" s="87"/>
       <c r="K37" s="46" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L37" s="58"/>
     </row>
-    <row r="38" spans="1:12" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="30">
         <v>3</v>
       </c>
       <c r="B38" s="73" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D38" s="48">
         <v>2</v>
@@ -3612,26 +3807,26 @@
         <v>10000</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H38" s="25">
         <v>10</v>
       </c>
       <c r="I38" s="46" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J38" s="46"/>
       <c r="K38" s="46" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L38" s="45"/>
     </row>
-    <row r="39" spans="1:12" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="30">
         <v>4</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C39" s="24"/>
       <c r="D39" s="60">
@@ -3645,24 +3840,24 @@
         <v>7995</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H39" s="24"/>
       <c r="I39" s="46" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J39" s="87"/>
       <c r="K39" s="46" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L39" s="58"/>
     </row>
-    <row r="40" spans="1:12" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="30">
         <v>5</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C40" s="24"/>
       <c r="D40" s="60">
@@ -3676,27 +3871,27 @@
         <v>27000</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H40" s="24"/>
       <c r="I40" s="46" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J40" s="87"/>
       <c r="K40" s="46" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L40" s="58"/>
     </row>
-    <row r="41" spans="1:12" s="44" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" s="44" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="68">
         <v>6</v>
       </c>
       <c r="B41" s="83" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C41" s="75" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D41" s="76">
         <v>6</v>
@@ -3709,29 +3904,29 @@
         <v>54900</v>
       </c>
       <c r="G41" s="75" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H41" s="75">
         <v>30</v>
       </c>
       <c r="I41" s="64" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J41" s="75"/>
       <c r="K41" s="75" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L41" s="74"/>
     </row>
-    <row r="42" spans="1:12" s="44" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" s="44" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="68">
         <v>7</v>
       </c>
       <c r="B42" s="83" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C42" s="75" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D42" s="76">
         <v>6</v>
@@ -3744,29 +3939,29 @@
         <v>12900</v>
       </c>
       <c r="G42" s="75" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H42" s="75">
         <v>30</v>
       </c>
       <c r="I42" s="64" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J42" s="75"/>
       <c r="K42" s="75" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L42" s="74"/>
     </row>
-    <row r="43" spans="1:12" s="44" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" s="44" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="68">
         <v>8</v>
       </c>
       <c r="B43" s="83" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C43" s="75" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D43" s="76">
         <v>6</v>
@@ -3779,26 +3974,26 @@
         <v>1500</v>
       </c>
       <c r="G43" s="75" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H43" s="75">
         <v>30</v>
       </c>
       <c r="I43" s="64" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J43" s="75"/>
       <c r="K43" s="75" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L43" s="74"/>
     </row>
-    <row r="44" spans="1:12" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="68">
         <v>9</v>
       </c>
       <c r="B44" s="64" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C44" s="64"/>
       <c r="D44" s="76">
@@ -3814,20 +4009,20 @@
       <c r="G44" s="86"/>
       <c r="H44" s="84"/>
       <c r="I44" s="64" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J44" s="75"/>
       <c r="K44" s="75" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L44" s="74"/>
     </row>
-    <row r="45" spans="1:12" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="68">
         <v>10</v>
       </c>
       <c r="B45" s="64" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C45" s="64"/>
       <c r="D45" s="76">
@@ -3847,19 +4042,19 @@
       </c>
       <c r="J45" s="75"/>
       <c r="K45" s="75" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L45" s="74"/>
     </row>
-    <row r="46" spans="1:12" s="44" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" s="44" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="68">
         <v>11</v>
       </c>
       <c r="B46" s="83" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C46" s="75" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D46" s="76">
         <v>3</v>
@@ -3872,7 +4067,7 @@
         <v>1500</v>
       </c>
       <c r="G46" s="75" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H46" s="75">
         <v>30</v>
@@ -3882,16 +4077,16 @@
       </c>
       <c r="J46" s="75"/>
       <c r="K46" s="75" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L46" s="74"/>
     </row>
-    <row r="47" spans="1:12" s="44" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" s="44" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="68">
         <v>12</v>
       </c>
       <c r="B47" s="64" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C47" s="64"/>
       <c r="D47" s="76">
@@ -3911,19 +4106,19 @@
       </c>
       <c r="J47" s="75"/>
       <c r="K47" s="75" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L47" s="74"/>
     </row>
-    <row r="48" spans="1:12" s="44" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" s="44" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="68">
         <v>13</v>
       </c>
       <c r="B48" s="83" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C48" s="75" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D48" s="76">
         <v>3</v>
@@ -3936,7 +4131,7 @@
         <v>2400</v>
       </c>
       <c r="G48" s="75" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H48" s="75">
         <v>30</v>
@@ -3946,19 +4141,19 @@
       </c>
       <c r="J48" s="75"/>
       <c r="K48" s="75" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L48" s="74"/>
     </row>
-    <row r="49" spans="1:14" s="44" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" s="44" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="68">
         <v>14</v>
       </c>
       <c r="B49" s="83" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C49" s="75" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D49" s="76">
         <v>3</v>
@@ -3971,7 +4166,7 @@
         <v>2100</v>
       </c>
       <c r="G49" s="75" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H49" s="75">
         <v>30</v>
@@ -3981,19 +4176,19 @@
       </c>
       <c r="J49" s="75"/>
       <c r="K49" s="75" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L49" s="74"/>
     </row>
-    <row r="50" spans="1:14" s="44" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" s="44" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="68">
         <v>15</v>
       </c>
       <c r="B50" s="83" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C50" s="75" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D50" s="76">
         <v>3</v>
@@ -4006,7 +4201,7 @@
         <v>15900</v>
       </c>
       <c r="G50" s="75" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H50" s="75">
         <v>30</v>
@@ -4016,19 +4211,19 @@
       </c>
       <c r="J50" s="75"/>
       <c r="K50" s="75" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L50" s="74"/>
     </row>
-    <row r="51" spans="1:14" s="44" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" s="44" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="68">
         <v>16</v>
       </c>
       <c r="B51" s="83" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C51" s="75" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D51" s="76">
         <v>3</v>
@@ -4041,7 +4236,7 @@
         <v>7950</v>
       </c>
       <c r="G51" s="75" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H51" s="75">
         <v>30</v>
@@ -4051,19 +4246,19 @@
       </c>
       <c r="J51" s="75"/>
       <c r="K51" s="75" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L51" s="74"/>
     </row>
-    <row r="52" spans="1:14" s="44" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" s="44" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="68">
         <v>17</v>
       </c>
       <c r="B52" s="83" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C52" s="75" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D52" s="76">
         <v>3</v>
@@ -4076,7 +4271,7 @@
         <v>10500</v>
       </c>
       <c r="G52" s="75" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H52" s="75">
         <v>30</v>
@@ -4086,19 +4281,19 @@
       </c>
       <c r="J52" s="75"/>
       <c r="K52" s="75" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L52" s="74"/>
     </row>
-    <row r="53" spans="1:14" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="68">
         <v>18</v>
       </c>
       <c r="B53" s="83" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C53" s="75" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D53" s="76">
         <v>3</v>
@@ -4111,7 +4306,7 @@
         <v>3450</v>
       </c>
       <c r="G53" s="75" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H53" s="75">
         <v>30</v>
@@ -4121,19 +4316,19 @@
       </c>
       <c r="J53" s="75"/>
       <c r="K53" s="75" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L53" s="74"/>
     </row>
-    <row r="54" spans="1:14" s="44" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" s="44" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="68">
         <v>19</v>
       </c>
       <c r="B54" s="83" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C54" s="75" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D54" s="76">
         <v>91</v>
@@ -4146,7 +4341,7 @@
         <v>227500</v>
       </c>
       <c r="G54" s="75" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H54" s="75">
         <v>30</v>
@@ -4155,22 +4350,22 @@
         <v>73</v>
       </c>
       <c r="J54" s="75" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K54" s="75" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L54" s="74"/>
     </row>
-    <row r="55" spans="1:14" s="44" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" s="44" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="68">
         <v>20</v>
       </c>
       <c r="B55" s="83" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C55" s="75" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D55" s="76">
         <v>13</v>
@@ -4183,7 +4378,7 @@
         <v>31850</v>
       </c>
       <c r="G55" s="75" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H55" s="75">
         <v>30</v>
@@ -4193,19 +4388,19 @@
       </c>
       <c r="J55" s="75"/>
       <c r="K55" s="75" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L55" s="74"/>
     </row>
-    <row r="56" spans="1:14" s="44" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" s="44" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="68">
         <v>21</v>
       </c>
       <c r="B56" s="83" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C56" s="75" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D56" s="76">
         <v>2</v>
@@ -4218,7 +4413,7 @@
         <v>4800</v>
       </c>
       <c r="G56" s="75" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H56" s="75">
         <v>30</v>
@@ -4228,19 +4423,19 @@
       </c>
       <c r="J56" s="75"/>
       <c r="K56" s="75" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L56" s="74"/>
     </row>
-    <row r="57" spans="1:14" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="30">
         <v>22</v>
       </c>
       <c r="B57" s="78" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C57" s="78" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D57" s="82">
         <v>3</v>
@@ -4253,7 +4448,7 @@
         <v>9897</v>
       </c>
       <c r="G57" s="78" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H57" s="78">
         <v>1</v>
@@ -4262,22 +4457,22 @@
         <v>73</v>
       </c>
       <c r="J57" s="78" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K57" s="78" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L57" s="45"/>
     </row>
-    <row r="58" spans="1:14" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="30">
         <v>23</v>
       </c>
       <c r="B58" s="72" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C58" s="72" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D58" s="72">
         <v>6</v>
@@ -4290,7 +4485,7 @@
         <v>72000</v>
       </c>
       <c r="G58" s="80" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H58" s="79"/>
       <c r="I58" s="46" t="s">
@@ -4298,21 +4493,21 @@
       </c>
       <c r="J58" s="78"/>
       <c r="K58" s="78" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L58" s="45"/>
       <c r="M58" s="71"/>
       <c r="N58" s="70"/>
     </row>
-    <row r="59" spans="1:14" s="44" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" s="44" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="30">
         <v>24</v>
       </c>
       <c r="B59" s="72" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C59" s="72" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D59" s="72">
         <v>6</v>
@@ -4325,7 +4520,7 @@
         <v>3000</v>
       </c>
       <c r="G59" s="80" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H59" s="79"/>
       <c r="I59" s="46" t="s">
@@ -4333,21 +4528,21 @@
       </c>
       <c r="J59" s="78"/>
       <c r="K59" s="78" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L59" s="45"/>
       <c r="M59" s="2"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="1:14" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="30">
         <v>25</v>
       </c>
       <c r="B60" s="72" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C60" s="80" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D60" s="80">
         <v>6</v>
@@ -4360,7 +4555,7 @@
         <v>1800</v>
       </c>
       <c r="G60" s="80" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H60" s="79"/>
       <c r="I60" s="46" t="s">
@@ -4368,21 +4563,21 @@
       </c>
       <c r="J60" s="78"/>
       <c r="K60" s="78" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L60" s="45"/>
       <c r="M60" s="71"/>
       <c r="N60" s="70"/>
     </row>
-    <row r="61" spans="1:14" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="30">
         <v>26</v>
       </c>
       <c r="B61" s="72" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C61" s="80" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D61" s="80">
         <v>6</v>
@@ -4395,7 +4590,7 @@
         <v>1800</v>
       </c>
       <c r="G61" s="80" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H61" s="79"/>
       <c r="I61" s="46" t="s">
@@ -4403,21 +4598,21 @@
       </c>
       <c r="J61" s="78"/>
       <c r="K61" s="78" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L61" s="45"/>
       <c r="M61" s="71"/>
       <c r="N61" s="70"/>
     </row>
-    <row r="62" spans="1:14" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="30">
         <v>27</v>
       </c>
       <c r="B62" s="78" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C62" s="78" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D62" s="82">
         <v>3</v>
@@ -4430,7 +4625,7 @@
         <v>45000</v>
       </c>
       <c r="G62" s="78" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H62" s="78">
         <v>45</v>
@@ -4439,24 +4634,24 @@
         <v>73</v>
       </c>
       <c r="J62" s="78" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K62" s="78" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L62" s="45"/>
       <c r="M62" s="71"/>
       <c r="N62" s="70"/>
     </row>
-    <row r="63" spans="1:14" s="44" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" s="44" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="30">
         <v>28</v>
       </c>
       <c r="B63" s="72" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C63" s="72" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D63" s="72">
         <v>11</v>
@@ -4469,7 +4664,7 @@
         <v>15400</v>
       </c>
       <c r="G63" s="72" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H63" s="79"/>
       <c r="I63" s="46" t="s">
@@ -4477,18 +4672,18 @@
       </c>
       <c r="J63" s="78"/>
       <c r="K63" s="78" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L63" s="45"/>
       <c r="M63" s="2"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="1:14" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="30">
         <v>29</v>
       </c>
       <c r="B64" s="72" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C64" s="72"/>
       <c r="D64" s="72">
@@ -4502,7 +4697,7 @@
         <v>32000</v>
       </c>
       <c r="G64" s="80" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H64" s="79"/>
       <c r="I64" s="46" t="s">
@@ -4510,18 +4705,18 @@
       </c>
       <c r="J64" s="78"/>
       <c r="K64" s="78" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L64" s="45"/>
       <c r="M64" s="71"/>
       <c r="N64" s="70"/>
     </row>
-    <row r="65" spans="1:14" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="30">
         <v>30</v>
       </c>
       <c r="B65" s="72" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C65" s="72"/>
       <c r="D65" s="72">
@@ -4535,26 +4730,26 @@
         <v>430000</v>
       </c>
       <c r="G65" s="72" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H65" s="79"/>
       <c r="I65" s="46" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J65" s="78"/>
       <c r="K65" s="78" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L65" s="45"/>
       <c r="M65" s="71"/>
       <c r="N65" s="70"/>
     </row>
-    <row r="66" spans="1:14" s="77" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" s="77" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="68">
         <v>31</v>
       </c>
       <c r="B66" s="75" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C66" s="75"/>
       <c r="D66" s="76">
@@ -4568,7 +4763,7 @@
         <v>40000</v>
       </c>
       <c r="G66" s="75" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H66" s="75"/>
       <c r="I66" s="64" t="s">
@@ -4576,16 +4771,16 @@
       </c>
       <c r="J66" s="75"/>
       <c r="K66" s="75" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L66" s="74"/>
     </row>
-    <row r="67" spans="1:14" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="68">
         <v>32</v>
       </c>
       <c r="B67" s="75" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C67" s="75"/>
       <c r="D67" s="76">
@@ -4599,7 +4794,7 @@
         <v>900</v>
       </c>
       <c r="G67" s="75" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H67" s="75"/>
       <c r="I67" s="64" t="s">
@@ -4607,16 +4802,16 @@
       </c>
       <c r="J67" s="75"/>
       <c r="K67" s="75" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L67" s="74"/>
     </row>
-    <row r="68" spans="1:14" s="44" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" s="44" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="68">
         <v>33</v>
       </c>
       <c r="B68" s="75" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C68" s="75"/>
       <c r="D68" s="76">
@@ -4626,11 +4821,11 @@
         <v>300</v>
       </c>
       <c r="F68" s="65">
-        <f t="shared" ref="F68:F99" si="2">SUM(D68*E68)</f>
+        <f t="shared" ref="F68:F87" si="2">SUM(D68*E68)</f>
         <v>1800</v>
       </c>
       <c r="G68" s="75" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H68" s="75"/>
       <c r="I68" s="64" t="s">
@@ -4638,16 +4833,16 @@
       </c>
       <c r="J68" s="75"/>
       <c r="K68" s="75" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L68" s="74"/>
     </row>
-    <row r="69" spans="1:14" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="68">
         <v>34</v>
       </c>
       <c r="B69" s="75" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C69" s="75"/>
       <c r="D69" s="76">
@@ -4661,7 +4856,7 @@
         <v>12000</v>
       </c>
       <c r="G69" s="75" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H69" s="75"/>
       <c r="I69" s="64" t="s">
@@ -4669,16 +4864,16 @@
       </c>
       <c r="J69" s="75"/>
       <c r="K69" s="75" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L69" s="74"/>
     </row>
-    <row r="70" spans="1:14" s="77" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" s="77" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="68">
         <v>35</v>
       </c>
       <c r="B70" s="75" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C70" s="75"/>
       <c r="D70" s="76">
@@ -4692,7 +4887,7 @@
         <v>150000</v>
       </c>
       <c r="G70" s="75" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H70" s="75"/>
       <c r="I70" s="64" t="s">
@@ -4700,16 +4895,16 @@
       </c>
       <c r="J70" s="75"/>
       <c r="K70" s="75" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L70" s="74"/>
     </row>
-    <row r="71" spans="1:14" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="68">
         <v>36</v>
       </c>
       <c r="B71" s="63" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C71" s="63"/>
       <c r="D71" s="63">
@@ -4723,7 +4918,7 @@
         <v>210000</v>
       </c>
       <c r="G71" s="63" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H71" s="63"/>
       <c r="I71" s="64" t="s">
@@ -4731,16 +4926,16 @@
       </c>
       <c r="J71" s="75"/>
       <c r="K71" s="75" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L71" s="74"/>
     </row>
-    <row r="72" spans="1:14" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="68">
         <v>37</v>
       </c>
       <c r="B72" s="75" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C72" s="75"/>
       <c r="D72" s="76">
@@ -4754,7 +4949,7 @@
         <v>6000</v>
       </c>
       <c r="G72" s="75" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H72" s="75"/>
       <c r="I72" s="64" t="s">
@@ -4762,16 +4957,16 @@
       </c>
       <c r="J72" s="75"/>
       <c r="K72" s="75" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L72" s="74"/>
     </row>
-    <row r="73" spans="1:14" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="68">
         <v>38</v>
       </c>
       <c r="B73" s="63" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C73" s="63"/>
       <c r="D73" s="63">
@@ -4785,7 +4980,7 @@
         <v>240000</v>
       </c>
       <c r="G73" s="63" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H73" s="63"/>
       <c r="I73" s="64" t="s">
@@ -4793,16 +4988,16 @@
       </c>
       <c r="J73" s="75"/>
       <c r="K73" s="75" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L73" s="74"/>
     </row>
-    <row r="74" spans="1:14" s="44" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" s="44" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="68">
         <v>39</v>
       </c>
       <c r="B74" s="63" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C74" s="63"/>
       <c r="D74" s="63">
@@ -4816,7 +5011,7 @@
         <v>400000</v>
       </c>
       <c r="G74" s="63" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H74" s="63"/>
       <c r="I74" s="64" t="s">
@@ -4824,16 +5019,16 @@
       </c>
       <c r="J74" s="75"/>
       <c r="K74" s="75" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L74" s="74"/>
     </row>
-    <row r="75" spans="1:14" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="68">
         <v>40</v>
       </c>
       <c r="B75" s="75" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C75" s="75"/>
       <c r="D75" s="76">
@@ -4847,27 +5042,27 @@
         <v>1900</v>
       </c>
       <c r="G75" s="75" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H75" s="75"/>
       <c r="I75" s="64" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J75" s="75"/>
       <c r="K75" s="75" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L75" s="74"/>
     </row>
-    <row r="76" spans="1:14" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="30">
         <v>41</v>
       </c>
       <c r="B76" s="72" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C76" s="72" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D76" s="60">
         <v>64</v>
@@ -4880,7 +5075,7 @@
         <v>67200</v>
       </c>
       <c r="G76" s="72" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H76" s="72">
         <v>2</v>
@@ -4889,24 +5084,24 @@
         <v>73</v>
       </c>
       <c r="J76" s="72" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K76" s="72" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L76" s="45"/>
       <c r="M76" s="71"/>
       <c r="N76" s="70"/>
     </row>
-    <row r="77" spans="1:14" s="44" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" s="44" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="30">
         <v>42</v>
       </c>
       <c r="B77" s="72" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C77" s="72" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D77" s="60">
         <v>4</v>
@@ -4919,7 +5114,7 @@
         <v>31800</v>
       </c>
       <c r="G77" s="72" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H77" s="72">
         <v>1</v>
@@ -4928,24 +5123,24 @@
         <v>73</v>
       </c>
       <c r="J77" s="72" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K77" s="72" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L77" s="45"/>
       <c r="M77" s="2"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="1:14" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="30">
         <v>43</v>
       </c>
       <c r="B78" s="73" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D78" s="48">
         <v>1</v>
@@ -4962,16 +5157,16 @@
       <c r="I78" s="46"/>
       <c r="J78" s="46"/>
       <c r="K78" s="46" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L78" s="45"/>
     </row>
-    <row r="79" spans="1:14" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="30">
         <v>44</v>
       </c>
       <c r="B79" s="72" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C79" s="72"/>
       <c r="D79" s="60">
@@ -4991,21 +5186,21 @@
       </c>
       <c r="J79" s="72"/>
       <c r="K79" s="72" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L79" s="45"/>
       <c r="M79" s="71"/>
       <c r="N79" s="70"/>
     </row>
-    <row r="80" spans="1:14" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="68">
         <v>45</v>
       </c>
       <c r="B80" s="63" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C80" s="63" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D80" s="67">
         <v>2</v>
@@ -5028,25 +5223,25 @@
       </c>
       <c r="L80" s="62"/>
     </row>
-    <row r="81" spans="1:12" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="68">
         <v>46</v>
       </c>
       <c r="B81" s="63" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C81" s="63" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D81" s="67">
         <v>2</v>
       </c>
-      <c r="E81" s="66">
-        <v>40000</v>
-      </c>
-      <c r="F81" s="65">
+      <c r="E81" s="120">
+        <v>39000</v>
+      </c>
+      <c r="F81" s="121">
         <f t="shared" si="2"/>
-        <v>80000</v>
+        <v>78000</v>
       </c>
       <c r="G81" s="63"/>
       <c r="H81" s="63"/>
@@ -5059,15 +5254,15 @@
       </c>
       <c r="L81" s="62"/>
     </row>
-    <row r="82" spans="1:12" s="69" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" s="69" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="68">
         <v>47</v>
       </c>
       <c r="B82" s="63" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C82" s="63" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D82" s="67">
         <v>5</v>
@@ -5080,7 +5275,7 @@
         <v>139165</v>
       </c>
       <c r="G82" s="63" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H82" s="63"/>
       <c r="I82" s="64" t="s">
@@ -5092,23 +5287,25 @@
       </c>
       <c r="L82" s="62"/>
     </row>
-    <row r="83" spans="1:12" s="44" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" s="44" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="68">
         <v>48</v>
       </c>
-      <c r="B83" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="C83" s="63"/>
-      <c r="D83" s="67">
-        <v>2</v>
-      </c>
-      <c r="E83" s="66">
-        <v>10000</v>
-      </c>
-      <c r="F83" s="65">
+      <c r="B83" s="122" t="s">
+        <v>276</v>
+      </c>
+      <c r="C83" s="122" t="s">
+        <v>277</v>
+      </c>
+      <c r="D83" s="123">
+        <v>1</v>
+      </c>
+      <c r="E83" s="120">
+        <v>48888</v>
+      </c>
+      <c r="F83" s="121">
         <f t="shared" si="2"/>
-        <v>20000</v>
+        <v>48888</v>
       </c>
       <c r="G83" s="63"/>
       <c r="H83" s="63"/>
@@ -5121,23 +5318,25 @@
       </c>
       <c r="L83" s="62"/>
     </row>
-    <row r="84" spans="1:12" s="44" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" s="44" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="68">
         <v>49</v>
       </c>
-      <c r="B84" s="63" t="s">
-        <v>75</v>
-      </c>
-      <c r="C84" s="63"/>
-      <c r="D84" s="67">
-        <v>2</v>
-      </c>
-      <c r="E84" s="66">
-        <v>5000</v>
-      </c>
-      <c r="F84" s="65">
+      <c r="B84" s="122" t="s">
+        <v>278</v>
+      </c>
+      <c r="C84" s="122" t="s">
+        <v>279</v>
+      </c>
+      <c r="D84" s="123">
+        <v>1</v>
+      </c>
+      <c r="E84" s="120">
+        <v>49950</v>
+      </c>
+      <c r="F84" s="121">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>49950</v>
       </c>
       <c r="G84" s="63"/>
       <c r="H84" s="63"/>
@@ -5150,23 +5349,21 @@
       </c>
       <c r="L84" s="62"/>
     </row>
-    <row r="85" spans="1:12" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="68">
         <v>50</v>
       </c>
-      <c r="B85" s="63" t="s">
-        <v>74</v>
-      </c>
+      <c r="B85" s="63"/>
       <c r="C85" s="63"/>
       <c r="D85" s="67">
         <v>2</v>
       </c>
       <c r="E85" s="66">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="F85" s="65">
         <f t="shared" si="2"/>
-        <v>160000</v>
+        <v>0</v>
       </c>
       <c r="G85" s="63"/>
       <c r="H85" s="63"/>
@@ -5179,7 +5376,7 @@
       </c>
       <c r="L85" s="62"/>
     </row>
-    <row r="86" spans="1:12" s="44" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" s="44" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="30">
         <v>51</v>
       </c>
@@ -5214,7 +5411,7 @@
       </c>
       <c r="L86" s="58"/>
     </row>
-    <row r="87" spans="1:12" s="44" customFormat="1" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" s="44" customFormat="1" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="22">
         <v>52</v>
       </c>
@@ -5249,7 +5446,7 @@
       </c>
       <c r="L87" s="55"/>
     </row>
-    <row r="88" spans="1:12" s="44" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" s="44" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A88" s="51"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
@@ -5259,7 +5456,7 @@
       </c>
       <c r="F88" s="54">
         <f>SUM(F36:F87)</f>
-        <v>3010322</v>
+        <v>2917160</v>
       </c>
       <c r="G88" s="53" t="s">
         <v>62</v>
@@ -5270,7 +5467,7 @@
       <c r="K88" s="51"/>
       <c r="L88" s="50"/>
     </row>
-    <row r="89" spans="1:12" s="44" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" s="44" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="51"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
@@ -5288,7 +5485,7 @@
       <c r="K89" s="51"/>
       <c r="L89" s="50"/>
     </row>
-    <row r="90" spans="1:12" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="114" t="s">
         <v>60</v>
       </c>
@@ -5304,7 +5501,7 @@
       <c r="K90" s="115"/>
       <c r="L90" s="115"/>
     </row>
-    <row r="91" spans="1:12" s="44" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" s="44" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="36" t="s">
         <v>35</v>
       </c>
@@ -5342,7 +5539,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:12" s="44" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" s="44" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="49">
         <v>1</v>
       </c>
@@ -5373,7 +5570,7 @@
       </c>
       <c r="L92" s="45"/>
     </row>
-    <row r="93" spans="1:12" s="44" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" s="44" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="49">
         <v>2</v>
       </c>
@@ -5404,7 +5601,7 @@
       </c>
       <c r="L93" s="45"/>
     </row>
-    <row r="94" spans="1:12" s="44" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" s="44" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="49">
         <v>3</v>
       </c>
@@ -5435,7 +5632,7 @@
       </c>
       <c r="L94" s="45"/>
     </row>
-    <row r="95" spans="1:12" s="44" customFormat="1" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" s="44" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="49">
         <v>4</v>
       </c>
@@ -5466,7 +5663,7 @@
       </c>
       <c r="L95" s="45"/>
     </row>
-    <row r="96" spans="1:12" s="6" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="43">
         <v>5</v>
       </c>
@@ -5497,7 +5694,7 @@
       </c>
       <c r="L96" s="39"/>
     </row>
-    <row r="97" spans="1:12" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="2"/>
@@ -5518,7 +5715,7 @@
       <c r="K97" s="2"/>
       <c r="L97" s="1"/>
     </row>
-    <row r="98" spans="1:12" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="2"/>
@@ -5536,7 +5733,7 @@
       <c r="K98" s="2"/>
       <c r="L98" s="1"/>
     </row>
-    <row r="99" spans="1:12" s="6" customFormat="1" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" s="6" customFormat="1" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="114" t="s">
         <v>49</v>
       </c>
@@ -5552,7 +5749,7 @@
       <c r="K99" s="115"/>
       <c r="L99" s="115"/>
     </row>
-    <row r="100" spans="1:12" s="6" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" s="6" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="36" t="s">
         <v>35</v>
       </c>
@@ -5590,23 +5787,25 @@
         <v>24</v>
       </c>
     </row>
-    <row r="101" spans="1:12" s="6" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" s="6" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="30">
         <v>1</v>
       </c>
-      <c r="B101" s="29" t="s">
+      <c r="B101" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="C101" s="25"/>
-      <c r="D101" s="29">
+      <c r="C101" s="117" t="s">
+        <v>280</v>
+      </c>
+      <c r="D101" s="116">
         <v>1</v>
       </c>
-      <c r="E101" s="28">
-        <v>261000</v>
-      </c>
-      <c r="F101" s="27">
+      <c r="E101" s="118">
+        <v>204000</v>
+      </c>
+      <c r="F101" s="119">
         <f t="shared" ref="F101:F106" si="3">SUM(D101*E101)</f>
-        <v>261000</v>
+        <v>204000</v>
       </c>
       <c r="G101" s="26"/>
       <c r="H101" s="25"/>
@@ -5617,7 +5816,7 @@
       </c>
       <c r="L101" s="23"/>
     </row>
-    <row r="102" spans="1:12" s="6" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" s="6" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="30">
         <v>2</v>
       </c>
@@ -5628,12 +5827,12 @@
       <c r="D102" s="29">
         <v>1</v>
       </c>
-      <c r="E102" s="28">
-        <v>88000</v>
-      </c>
-      <c r="F102" s="27">
+      <c r="E102" s="118">
+        <v>40000</v>
+      </c>
+      <c r="F102" s="119">
         <f t="shared" si="3"/>
-        <v>88000</v>
+        <v>40000</v>
       </c>
       <c r="G102" s="26"/>
       <c r="H102" s="25"/>
@@ -5644,7 +5843,7 @@
       </c>
       <c r="L102" s="23"/>
     </row>
-    <row r="103" spans="1:12" s="6" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" s="6" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="30">
         <v>3</v>
       </c>
@@ -5671,7 +5870,7 @@
       </c>
       <c r="L103" s="23"/>
     </row>
-    <row r="104" spans="1:12" s="6" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" s="6" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="30">
         <v>4</v>
       </c>
@@ -5698,7 +5897,7 @@
       </c>
       <c r="L104" s="23"/>
     </row>
-    <row r="105" spans="1:12" s="6" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" s="6" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="30">
         <v>5</v>
       </c>
@@ -5725,7 +5924,7 @@
       </c>
       <c r="L105" s="23"/>
     </row>
-    <row r="106" spans="1:12" s="6" customFormat="1" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" s="6" customFormat="1" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="22">
         <v>6</v>
       </c>
@@ -5752,7 +5951,7 @@
       </c>
       <c r="L106" s="15"/>
     </row>
-    <row r="107" spans="1:12" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="2"/>
@@ -5762,7 +5961,7 @@
       </c>
       <c r="F107" s="13">
         <f>SUM(F101:F106)</f>
-        <v>700000</v>
+        <v>595000</v>
       </c>
       <c r="G107" s="9"/>
       <c r="H107" s="2"/>
@@ -5771,7 +5970,7 @@
       <c r="K107" s="2"/>
       <c r="L107" s="1"/>
     </row>
-    <row r="108" spans="1:12" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="2"/>
@@ -5789,7 +5988,7 @@
       <c r="K108" s="2"/>
       <c r="L108" s="1"/>
     </row>
-    <row r="109" spans="1:12" s="6" customFormat="1" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" s="6" customFormat="1" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="114" t="s">
         <v>48</v>
       </c>
@@ -5805,7 +6004,7 @@
       <c r="K109" s="115"/>
       <c r="L109" s="115"/>
     </row>
-    <row r="110" spans="1:12" s="6" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" s="6" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="36" t="s">
         <v>35</v>
       </c>
@@ -5843,7 +6042,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="1:12" s="6" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" s="6" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="30">
         <v>1</v>
       </c>
@@ -5854,12 +6053,12 @@
       <c r="D111" s="29">
         <v>1</v>
       </c>
-      <c r="E111" s="28">
-        <v>210000</v>
-      </c>
-      <c r="F111" s="27">
-        <f t="shared" ref="F111:F116" si="4">SUM(D111*E111)</f>
-        <v>210000</v>
+      <c r="E111" s="118">
+        <v>286350</v>
+      </c>
+      <c r="F111" s="119">
+        <f t="shared" ref="F111:F119" si="4">SUM(D111*E111)</f>
+        <v>286350</v>
       </c>
       <c r="G111" s="26"/>
       <c r="H111" s="25"/>
@@ -5870,7 +6069,7 @@
       </c>
       <c r="L111" s="23"/>
     </row>
-    <row r="112" spans="1:12" s="6" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" s="6" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="30">
         <v>2</v>
       </c>
@@ -5897,7 +6096,7 @@
       </c>
       <c r="L112" s="23"/>
     </row>
-    <row r="113" spans="1:12" s="6" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" s="6" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="30">
         <v>3</v>
       </c>
@@ -5908,12 +6107,12 @@
       <c r="D113" s="29">
         <v>1</v>
       </c>
-      <c r="E113" s="28">
-        <v>83000</v>
-      </c>
-      <c r="F113" s="27">
+      <c r="E113" s="118">
+        <v>27336.85</v>
+      </c>
+      <c r="F113" s="119">
         <f t="shared" si="4"/>
-        <v>83000</v>
+        <v>27336.85</v>
       </c>
       <c r="G113" s="26"/>
       <c r="H113" s="25"/>
@@ -5924,7 +6123,7 @@
       </c>
       <c r="L113" s="23"/>
     </row>
-    <row r="114" spans="1:12" s="6" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" s="6" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="30">
         <v>4</v>
       </c>
@@ -5951,7 +6150,7 @@
       </c>
       <c r="L114" s="23"/>
     </row>
-    <row r="115" spans="1:12" s="6" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" s="6" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="30">
         <v>5</v>
       </c>
@@ -5978,331 +6177,353 @@
       </c>
       <c r="L115" s="23"/>
     </row>
-    <row r="116" spans="1:12" s="6" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="22">
+    <row r="116" spans="1:12" s="6" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="124"/>
+      <c r="B116" s="129" t="s">
+        <v>281</v>
+      </c>
+      <c r="C116" s="130"/>
+      <c r="D116" s="129">
+        <v>2</v>
+      </c>
+      <c r="E116" s="131">
+        <v>16500</v>
+      </c>
+      <c r="F116" s="132">
+        <f t="shared" si="4"/>
+        <v>33000</v>
+      </c>
+      <c r="G116" s="126"/>
+      <c r="H116" s="125"/>
+      <c r="I116" s="125"/>
+      <c r="J116" s="125"/>
+      <c r="K116" s="127"/>
+      <c r="L116" s="128"/>
+    </row>
+    <row r="117" spans="1:12" s="6" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="124"/>
+      <c r="B117" s="129" t="s">
+        <v>282</v>
+      </c>
+      <c r="C117" s="130"/>
+      <c r="D117" s="129">
+        <v>1</v>
+      </c>
+      <c r="E117" s="131">
+        <v>26100</v>
+      </c>
+      <c r="F117" s="132">
+        <f t="shared" si="4"/>
+        <v>26100</v>
+      </c>
+      <c r="G117" s="126"/>
+      <c r="H117" s="125"/>
+      <c r="I117" s="125"/>
+      <c r="J117" s="125"/>
+      <c r="K117" s="127"/>
+      <c r="L117" s="128"/>
+    </row>
+    <row r="118" spans="1:12" s="6" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="124"/>
+      <c r="B118" s="129" t="s">
+        <v>283</v>
+      </c>
+      <c r="C118" s="130"/>
+      <c r="D118" s="129">
+        <v>1</v>
+      </c>
+      <c r="E118" s="131">
+        <v>24960</v>
+      </c>
+      <c r="F118" s="132">
+        <f t="shared" si="4"/>
+        <v>24960</v>
+      </c>
+      <c r="G118" s="126"/>
+      <c r="H118" s="125"/>
+      <c r="I118" s="125"/>
+      <c r="J118" s="125"/>
+      <c r="K118" s="127"/>
+      <c r="L118" s="128"/>
+    </row>
+    <row r="119" spans="1:12" s="6" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="22">
         <v>6</v>
       </c>
-      <c r="B116" s="21" t="s">
+      <c r="B119" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C116" s="17"/>
-      <c r="D116" s="21">
+      <c r="C119" s="17"/>
+      <c r="D119" s="21">
         <v>1</v>
       </c>
-      <c r="E116" s="20">
+      <c r="E119" s="20">
         <v>5000</v>
       </c>
-      <c r="F116" s="19">
+      <c r="F119" s="19">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="G116" s="18"/>
-      <c r="H116" s="17"/>
-      <c r="I116" s="17"/>
-      <c r="J116" s="17"/>
-      <c r="K116" s="16" t="s">
+      <c r="G119" s="18"/>
+      <c r="H119" s="17"/>
+      <c r="I119" s="17"/>
+      <c r="J119" s="17"/>
+      <c r="K119" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="L116" s="15"/>
-    </row>
-    <row r="117" spans="1:12" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A117" s="5"/>
-      <c r="B117" s="5"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="4"/>
-      <c r="E117" s="14" t="s">
+      <c r="L119" s="15"/>
+    </row>
+    <row r="120" spans="1:12" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+      <c r="A120" s="5"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F117" s="13">
-        <f>SUM(F111:F116)</f>
-        <v>703000</v>
-      </c>
-      <c r="G117" s="9"/>
-      <c r="H117" s="2"/>
-      <c r="I117" s="2"/>
-      <c r="J117" s="2"/>
-      <c r="K117" s="2"/>
-      <c r="L117" s="1"/>
-    </row>
-    <row r="118" spans="1:12" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A118" s="5"/>
-      <c r="B118" s="5"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="4"/>
-      <c r="E118" s="12" t="s">
+      <c r="F120" s="13">
+        <f>SUM(F111:F119)</f>
+        <v>807746.85</v>
+      </c>
+      <c r="G120" s="9"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2"/>
+      <c r="K120" s="2"/>
+      <c r="L120" s="1"/>
+    </row>
+    <row r="121" spans="1:12" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+      <c r="A121" s="5"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F118" s="11" t="s">
+      <c r="F121" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G118" s="9"/>
-      <c r="H118" s="2"/>
-      <c r="I118" s="2"/>
-      <c r="J118" s="2"/>
-      <c r="K118" s="2"/>
-      <c r="L118" s="1"/>
-    </row>
-    <row r="119" spans="1:12" s="6" customFormat="1" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="114" t="s">
+      <c r="G121" s="9"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+      <c r="J121" s="2"/>
+      <c r="K121" s="2"/>
+      <c r="L121" s="1"/>
+    </row>
+    <row r="122" spans="1:12" s="6" customFormat="1" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="B119" s="115"/>
-      <c r="C119" s="115"/>
-      <c r="D119" s="115"/>
-      <c r="E119" s="115"/>
-      <c r="F119" s="115"/>
-      <c r="G119" s="115"/>
-      <c r="H119" s="115"/>
-      <c r="I119" s="115"/>
-      <c r="J119" s="115"/>
-      <c r="K119" s="115"/>
-      <c r="L119" s="115"/>
-    </row>
-    <row r="120" spans="1:12" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="36" t="s">
+      <c r="B122" s="115"/>
+      <c r="C122" s="115"/>
+      <c r="D122" s="115"/>
+      <c r="E122" s="115"/>
+      <c r="F122" s="115"/>
+      <c r="G122" s="115"/>
+      <c r="H122" s="115"/>
+      <c r="I122" s="115"/>
+      <c r="J122" s="115"/>
+      <c r="K122" s="115"/>
+      <c r="L122" s="115"/>
+    </row>
+    <row r="123" spans="1:12" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B120" s="32" t="s">
+      <c r="B123" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C120" s="32" t="s">
+      <c r="C123" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="D120" s="35" t="s">
+      <c r="D123" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="E120" s="34" t="s">
+      <c r="E123" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="F120" s="33" t="s">
+      <c r="F123" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="G120" s="32" t="s">
+      <c r="G123" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="H120" s="32" t="s">
+      <c r="H123" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="I120" s="32" t="s">
+      <c r="I123" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="J120" s="32" t="s">
+      <c r="J123" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="K120" s="32" t="s">
+      <c r="K123" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="L120" s="31" t="s">
+      <c r="L123" s="31" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="121" spans="1:12" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="30">
+    <row r="124" spans="1:12" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="30">
         <v>1</v>
       </c>
-      <c r="B121" s="29" t="s">
+      <c r="B124" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C121" s="25"/>
-      <c r="D121" s="29">
+      <c r="C124" s="25"/>
+      <c r="D124" s="29">
         <v>1</v>
       </c>
-      <c r="E121" s="28">
-        <v>19300</v>
-      </c>
-      <c r="F121" s="27">
-        <f>SUM(D121*E121)</f>
-        <v>19300</v>
-      </c>
-      <c r="G121" s="26"/>
-      <c r="H121" s="25"/>
-      <c r="I121" s="25"/>
-      <c r="J121" s="25"/>
-      <c r="K121" s="24" t="s">
+      <c r="E124" s="118">
+        <v>0</v>
+      </c>
+      <c r="F124" s="119">
+        <f>SUM(D124*E124)</f>
+        <v>0</v>
+      </c>
+      <c r="G124" s="26"/>
+      <c r="H124" s="25"/>
+      <c r="I124" s="25"/>
+      <c r="J124" s="25"/>
+      <c r="K124" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="L121" s="23"/>
-    </row>
-    <row r="122" spans="1:12" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="30">
+      <c r="L124" s="23"/>
+    </row>
+    <row r="125" spans="1:12" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="30">
         <v>2</v>
       </c>
-      <c r="B122" s="29" t="s">
+      <c r="B125" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C122" s="25"/>
-      <c r="D122" s="29">
+      <c r="C125" s="25"/>
+      <c r="D125" s="29">
         <v>1</v>
       </c>
-      <c r="E122" s="28">
-        <v>28400</v>
-      </c>
-      <c r="F122" s="27">
-        <f>SUM(D122*E122)</f>
-        <v>28400</v>
-      </c>
-      <c r="G122" s="26"/>
-      <c r="H122" s="25"/>
-      <c r="I122" s="25"/>
-      <c r="J122" s="25"/>
-      <c r="K122" s="24" t="s">
+      <c r="E125" s="118">
+        <v>0</v>
+      </c>
+      <c r="F125" s="119">
+        <f>SUM(D125*E125)</f>
+        <v>0</v>
+      </c>
+      <c r="G125" s="26"/>
+      <c r="H125" s="25"/>
+      <c r="I125" s="25"/>
+      <c r="J125" s="25"/>
+      <c r="K125" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="L122" s="23"/>
-    </row>
-    <row r="123" spans="1:12" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="30">
+      <c r="L125" s="23"/>
+    </row>
+    <row r="126" spans="1:12" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="30">
         <v>3</v>
       </c>
-      <c r="B123" s="29" t="s">
+      <c r="B126" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C123" s="25"/>
-      <c r="D123" s="29">
+      <c r="C126" s="25"/>
+      <c r="D126" s="29">
         <v>1</v>
       </c>
-      <c r="E123" s="28">
-        <v>30000</v>
-      </c>
-      <c r="F123" s="27">
-        <f>SUM(D123*E123)</f>
-        <v>30000</v>
-      </c>
-      <c r="G123" s="26"/>
-      <c r="H123" s="25"/>
-      <c r="I123" s="25"/>
-      <c r="J123" s="25"/>
-      <c r="K123" s="24" t="s">
+      <c r="E126" s="118">
+        <v>0</v>
+      </c>
+      <c r="F126" s="119">
+        <f>SUM(D126*E126)</f>
+        <v>0</v>
+      </c>
+      <c r="G126" s="26"/>
+      <c r="H126" s="25"/>
+      <c r="I126" s="25"/>
+      <c r="J126" s="25"/>
+      <c r="K126" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="L123" s="23"/>
-    </row>
-    <row r="124" spans="1:12" s="6" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="22">
+      <c r="L126" s="23"/>
+    </row>
+    <row r="127" spans="1:12" s="6" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="22">
         <v>4</v>
       </c>
-      <c r="B124" s="21" t="s">
+      <c r="B127" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C124" s="17"/>
-      <c r="D124" s="21">
+      <c r="C127" s="17"/>
+      <c r="D127" s="21">
         <v>1</v>
       </c>
-      <c r="E124" s="20">
-        <v>23000</v>
-      </c>
-      <c r="F124" s="19">
-        <f>SUM(D124*E124)</f>
-        <v>23000</v>
-      </c>
-      <c r="G124" s="18"/>
-      <c r="H124" s="17"/>
-      <c r="I124" s="17"/>
-      <c r="J124" s="17"/>
-      <c r="K124" s="16" t="s">
+      <c r="E127" s="134">
+        <v>0</v>
+      </c>
+      <c r="F127" s="135">
+        <f>SUM(D127*E127)</f>
+        <v>0</v>
+      </c>
+      <c r="G127" s="18"/>
+      <c r="H127" s="17"/>
+      <c r="I127" s="17"/>
+      <c r="J127" s="17"/>
+      <c r="K127" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="L124" s="15"/>
-    </row>
-    <row r="125" spans="1:12" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A125" s="5"/>
-      <c r="B125"/>
-      <c r="C125" s="2"/>
-      <c r="D125"/>
-      <c r="E125" s="14" t="s">
+      <c r="L127" s="15"/>
+    </row>
+    <row r="128" spans="1:12" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+      <c r="A128" s="5"/>
+      <c r="B128"/>
+      <c r="C128" s="2"/>
+      <c r="D128"/>
+      <c r="E128" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F125" s="13">
-        <f>SUM(F121:F124)</f>
-        <v>100700</v>
-      </c>
-      <c r="G125" s="9"/>
-      <c r="H125" s="2"/>
-      <c r="I125" s="2"/>
-      <c r="J125" s="2"/>
-      <c r="K125" s="2"/>
-      <c r="L125" s="1"/>
-    </row>
-    <row r="126" spans="1:12" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A126" s="5"/>
-      <c r="B126"/>
-      <c r="C126" s="2"/>
-      <c r="D126"/>
-      <c r="E126" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F126" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G126" s="9"/>
-      <c r="H126" s="2"/>
-      <c r="I126" s="2"/>
-      <c r="J126" s="2"/>
-      <c r="K126" s="2"/>
-      <c r="L126" s="1"/>
-    </row>
-    <row r="127" spans="1:12" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A127" s="5"/>
-      <c r="B127" s="5"/>
-      <c r="C127" s="2"/>
-      <c r="D127" s="4"/>
-      <c r="E127" s="10"/>
-      <c r="F127" s="3"/>
-      <c r="G127" s="9"/>
-      <c r="H127" s="2"/>
-      <c r="I127" s="2"/>
-      <c r="J127" s="2"/>
-      <c r="K127" s="2"/>
-      <c r="L127" s="1"/>
-    </row>
-    <row r="128" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="5"/>
-      <c r="B128" s="5"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="4"/>
-      <c r="E128" s="3"/>
-      <c r="F128" s="3"/>
-      <c r="G128" s="2"/>
+      <c r="F128" s="13">
+        <f>SUM(F124:F127)</f>
+        <v>0</v>
+      </c>
+      <c r="G128" s="9"/>
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
       <c r="J128" s="2"/>
       <c r="K128" s="2"/>
       <c r="L128" s="1"/>
     </row>
-    <row r="129" spans="1:12" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A129" s="5"/>
-      <c r="B129" s="5"/>
+      <c r="B129"/>
       <c r="C129" s="2"/>
-      <c r="D129" s="4"/>
-      <c r="E129" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F129" s="7">
-        <f>SUM(F31+F88+F97+F107+F117+F125)</f>
-        <v>4999192</v>
-      </c>
-      <c r="G129" s="2"/>
+      <c r="D129"/>
+      <c r="E129" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F129" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G129" s="9"/>
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
       <c r="J129" s="2"/>
       <c r="K129" s="2"/>
       <c r="L129" s="1"/>
     </row>
-    <row r="130" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="2"/>
       <c r="D130" s="4"/>
-      <c r="E130" s="3"/>
+      <c r="E130" s="10"/>
       <c r="F130" s="3"/>
-      <c r="G130" s="2"/>
+      <c r="G130" s="9"/>
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
       <c r="J130" s="2"/>
       <c r="K130" s="2"/>
       <c r="L130" s="1"/>
     </row>
-    <row r="131" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="2"/>
@@ -6316,13 +6537,18 @@
       <c r="K131" s="2"/>
       <c r="L131" s="1"/>
     </row>
-    <row r="132" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" s="6" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="2"/>
       <c r="D132" s="4"/>
-      <c r="E132" s="3"/>
-      <c r="F132" s="3"/>
+      <c r="E132" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F132" s="7">
+        <f>SUM(F31+F88+F97+F107+F120+F128)</f>
+        <v>4805076.8499999996</v>
+      </c>
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
@@ -6330,7 +6556,7 @@
       <c r="K132" s="2"/>
       <c r="L132" s="1"/>
     </row>
-    <row r="133" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="2"/>
@@ -6344,7 +6570,7 @@
       <c r="K133" s="2"/>
       <c r="L133" s="1"/>
     </row>
-    <row r="134" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="2"/>
@@ -6358,7 +6584,7 @@
       <c r="K134" s="2"/>
       <c r="L134" s="1"/>
     </row>
-    <row r="135" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="2"/>
@@ -6372,7 +6598,7 @@
       <c r="K135" s="2"/>
       <c r="L135" s="1"/>
     </row>
-    <row r="136" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="2"/>
@@ -6386,7 +6612,7 @@
       <c r="K136" s="2"/>
       <c r="L136" s="1"/>
     </row>
-    <row r="137" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="2"/>
@@ -6400,7 +6626,7 @@
       <c r="K137" s="2"/>
       <c r="L137" s="1"/>
     </row>
-    <row r="138" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="2"/>
@@ -6414,7 +6640,7 @@
       <c r="K138" s="2"/>
       <c r="L138" s="1"/>
     </row>
-    <row r="139" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="2"/>
@@ -6428,7 +6654,7 @@
       <c r="K139" s="2"/>
       <c r="L139" s="1"/>
     </row>
-    <row r="140" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="2"/>
@@ -6442,7 +6668,7 @@
       <c r="K140" s="2"/>
       <c r="L140" s="1"/>
     </row>
-    <row r="141" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="2"/>
@@ -6456,7 +6682,7 @@
       <c r="K141" s="2"/>
       <c r="L141" s="1"/>
     </row>
-    <row r="142" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="2"/>
@@ -6470,147 +6696,115 @@
       <c r="K142" s="2"/>
       <c r="L142" s="1"/>
     </row>
-    <row r="143" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143"/>
-      <c r="B143"/>
-      <c r="C143"/>
-      <c r="D143"/>
-      <c r="E143"/>
-      <c r="F143"/>
-      <c r="G143"/>
+    <row r="143" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="5"/>
+      <c r="B143" s="5"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="3"/>
+      <c r="F143" s="3"/>
+      <c r="G143" s="2"/>
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
       <c r="J143" s="2"/>
       <c r="K143" s="2"/>
       <c r="L143" s="1"/>
     </row>
-    <row r="144" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144"/>
-      <c r="B144" t="s">
-        <v>18</v>
-      </c>
-      <c r="C144"/>
-      <c r="D144"/>
-      <c r="E144"/>
-      <c r="F144"/>
-      <c r="G144"/>
+    <row r="144" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="5"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="3"/>
+      <c r="F144" s="3"/>
+      <c r="G144" s="2"/>
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
       <c r="J144" s="2"/>
       <c r="K144" s="2"/>
       <c r="L144" s="1"/>
     </row>
-    <row r="145" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145"/>
-      <c r="B145" t="s">
-        <v>17</v>
-      </c>
-      <c r="C145" t="s">
-        <v>16</v>
-      </c>
-      <c r="D145" t="s">
-        <v>15</v>
-      </c>
-      <c r="E145" t="s">
-        <v>14</v>
-      </c>
-      <c r="F145" t="s">
-        <v>13</v>
-      </c>
-      <c r="G145"/>
+    <row r="145" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="5"/>
+      <c r="B145" s="5"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="3"/>
+      <c r="F145" s="3"/>
+      <c r="G145" s="2"/>
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
       <c r="L145" s="1"/>
     </row>
-    <row r="146" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146"/>
-      <c r="B146">
-        <v>1</v>
-      </c>
-      <c r="C146" t="s">
-        <v>12</v>
-      </c>
-      <c r="D146">
-        <v>1</v>
-      </c>
-      <c r="E146">
-        <v>261000</v>
-      </c>
+      <c r="B146"/>
+      <c r="C146"/>
+      <c r="D146"/>
+      <c r="E146"/>
       <c r="F146"/>
-      <c r="G146">
-        <f>E146*F146</f>
-        <v>0</v>
-      </c>
+      <c r="G146"/>
       <c r="H146" s="2"/>
       <c r="I146" s="2"/>
       <c r="J146" s="2"/>
       <c r="K146" s="2"/>
       <c r="L146" s="1"/>
     </row>
-    <row r="147" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147"/>
-      <c r="B147">
-        <v>2</v>
-      </c>
-      <c r="C147" t="s">
-        <v>9</v>
-      </c>
-      <c r="D147">
-        <v>1</v>
-      </c>
-      <c r="E147">
-        <v>88000</v>
-      </c>
+      <c r="B147" t="s">
+        <v>18</v>
+      </c>
+      <c r="C147"/>
+      <c r="D147"/>
+      <c r="E147"/>
       <c r="F147"/>
-      <c r="G147">
-        <f>E147*F147</f>
-        <v>0</v>
-      </c>
+      <c r="G147"/>
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
       <c r="J147" s="2"/>
       <c r="K147" s="2"/>
       <c r="L147" s="1"/>
     </row>
-    <row r="148" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148"/>
-      <c r="B148">
-        <v>3</v>
+      <c r="B148" t="s">
+        <v>17</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
-      </c>
-      <c r="D148">
-        <v>1</v>
-      </c>
-      <c r="E148">
-        <v>78000</v>
-      </c>
-      <c r="F148"/>
-      <c r="G148">
-        <v>75400</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D148" t="s">
+        <v>15</v>
+      </c>
+      <c r="E148" t="s">
+        <v>14</v>
+      </c>
+      <c r="F148" t="s">
+        <v>13</v>
+      </c>
+      <c r="G148"/>
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
       <c r="J148" s="2"/>
       <c r="K148" s="2"/>
       <c r="L148" s="1"/>
     </row>
-    <row r="149" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149"/>
       <c r="B149">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C149" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D149">
         <v>1</v>
       </c>
       <c r="E149">
-        <v>182000</v>
+        <v>261000</v>
       </c>
       <c r="F149"/>
       <c r="G149">
@@ -6623,19 +6817,19 @@
       <c r="K149" s="2"/>
       <c r="L149" s="1"/>
     </row>
-    <row r="150" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150"/>
       <c r="B150">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C150" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D150">
         <v>1</v>
       </c>
       <c r="E150">
-        <v>86000</v>
+        <v>88000</v>
       </c>
       <c r="F150"/>
       <c r="G150">
@@ -6648,24 +6842,23 @@
       <c r="K150" s="2"/>
       <c r="L150" s="1"/>
     </row>
-    <row r="151" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151"/>
       <c r="B151">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C151" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D151">
         <v>1</v>
       </c>
       <c r="E151">
-        <v>5000</v>
+        <v>78000</v>
       </c>
       <c r="F151"/>
       <c r="G151">
-        <f>E151*F151</f>
-        <v>0</v>
+        <v>75400</v>
       </c>
       <c r="H151" s="2"/>
       <c r="I151" s="2"/>
@@ -6673,254 +6866,329 @@
       <c r="K151" s="2"/>
       <c r="L151" s="1"/>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152"/>
-      <c r="B152" t="s">
-        <v>11</v>
-      </c>
-      <c r="C152"/>
-      <c r="D152"/>
-      <c r="E152"/>
+      <c r="B152">
+        <v>4</v>
+      </c>
+      <c r="C152" t="s">
+        <v>7</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="E152">
+        <v>182000</v>
+      </c>
       <c r="F152"/>
       <c r="G152">
-        <f>SUM(G146:G151)</f>
-        <v>75400</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+        <f>E152*F152</f>
+        <v>0</v>
+      </c>
+      <c r="H152" s="2"/>
+      <c r="I152" s="2"/>
+      <c r="J152" s="2"/>
+      <c r="K152" s="2"/>
+      <c r="L152" s="1"/>
+    </row>
+    <row r="153" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153"/>
       <c r="B153">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C153" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D153">
         <v>1</v>
       </c>
       <c r="E153">
-        <v>210000</v>
+        <v>86000</v>
       </c>
       <c r="F153"/>
       <c r="G153">
-        <v>210000</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+        <f>E153*F153</f>
+        <v>0</v>
+      </c>
+      <c r="H153" s="2"/>
+      <c r="I153" s="2"/>
+      <c r="J153" s="2"/>
+      <c r="K153" s="2"/>
+      <c r="L153" s="1"/>
+    </row>
+    <row r="154" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154"/>
       <c r="B154">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D154">
         <v>1</v>
       </c>
       <c r="E154">
-        <v>160000</v>
+        <v>5000</v>
       </c>
       <c r="F154"/>
       <c r="G154">
-        <v>160000</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+        <f>E154*F154</f>
+        <v>0</v>
+      </c>
+      <c r="H154" s="2"/>
+      <c r="I154" s="2"/>
+      <c r="J154" s="2"/>
+      <c r="K154" s="2"/>
+      <c r="L154" s="1"/>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155"/>
-      <c r="B155">
-        <v>3</v>
-      </c>
-      <c r="C155" t="s">
-        <v>8</v>
-      </c>
-      <c r="D155">
-        <v>1</v>
-      </c>
-      <c r="E155">
-        <v>83000</v>
-      </c>
+      <c r="B155" t="s">
+        <v>11</v>
+      </c>
+      <c r="C155"/>
+      <c r="D155"/>
+      <c r="E155"/>
       <c r="F155"/>
       <c r="G155">
-        <v>83000</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+        <f>SUM(G149:G154)</f>
+        <v>75400</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156"/>
       <c r="B156">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C156" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D156">
         <v>1</v>
       </c>
       <c r="E156">
-        <v>167000</v>
+        <v>210000</v>
       </c>
       <c r="F156"/>
       <c r="G156">
-        <v>167000</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157"/>
       <c r="B157">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C157" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D157">
         <v>1</v>
       </c>
       <c r="E157">
-        <v>78000</v>
+        <v>160000</v>
       </c>
       <c r="F157"/>
       <c r="G157">
-        <v>78000</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158"/>
       <c r="B158">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C158" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D158">
         <v>1</v>
       </c>
       <c r="E158">
-        <v>5000</v>
+        <v>83000</v>
       </c>
       <c r="F158"/>
       <c r="G158">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+        <v>83000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159"/>
-      <c r="B159" t="s">
+      <c r="B159">
         <v>4</v>
       </c>
-      <c r="C159"/>
-      <c r="D159"/>
-      <c r="E159"/>
+      <c r="C159" t="s">
+        <v>7</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+      <c r="E159">
+        <v>167000</v>
+      </c>
       <c r="F159"/>
       <c r="G159">
-        <f>SUM(G153:G158)</f>
-        <v>703000</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+        <v>167000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160"/>
       <c r="B160">
+        <v>5</v>
+      </c>
+      <c r="C160" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160">
         <v>1</v>
       </c>
-      <c r="C160" t="s">
-        <v>3</v>
-      </c>
-      <c r="D160">
-        <v>9</v>
-      </c>
       <c r="E160">
-        <v>19300</v>
+        <v>78000</v>
       </c>
       <c r="F160"/>
       <c r="G160">
-        <v>19300</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78000</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161"/>
       <c r="B161">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C161" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D161">
         <v>1</v>
       </c>
       <c r="E161">
-        <v>28400</v>
+        <v>5000</v>
       </c>
       <c r="F161"/>
       <c r="G161">
-        <v>28400</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162"/>
-      <c r="B162">
-        <v>3</v>
-      </c>
-      <c r="C162" t="s">
-        <v>1</v>
-      </c>
-      <c r="D162">
-        <v>1</v>
-      </c>
-      <c r="E162">
-        <v>30000</v>
-      </c>
+      <c r="B162" t="s">
+        <v>4</v>
+      </c>
+      <c r="C162"/>
+      <c r="D162"/>
+      <c r="E162"/>
       <c r="F162"/>
       <c r="G162">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+        <f>SUM(G156:G161)</f>
+        <v>703000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163"/>
       <c r="B163">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C163" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D163">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E163">
-        <v>23000</v>
+        <v>19300</v>
       </c>
       <c r="F163"/>
       <c r="G163">
-        <v>23000</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19300</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164"/>
-      <c r="B164"/>
-      <c r="C164"/>
-      <c r="D164"/>
-      <c r="E164"/>
+      <c r="B164">
+        <v>2</v>
+      </c>
+      <c r="C164" t="s">
+        <v>2</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+      <c r="E164">
+        <v>28400</v>
+      </c>
       <c r="F164"/>
       <c r="G164">
-        <f>SUM(G160:G163)</f>
-        <v>100700</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+        <v>28400</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165"/>
-      <c r="B165"/>
-      <c r="C165"/>
-      <c r="D165"/>
-      <c r="E165"/>
+      <c r="B165">
+        <v>3</v>
+      </c>
+      <c r="C165" t="s">
+        <v>1</v>
+      </c>
+      <c r="D165">
+        <v>1</v>
+      </c>
+      <c r="E165">
+        <v>30000</v>
+      </c>
       <c r="F165"/>
-      <c r="G165"/>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G165">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166"/>
-      <c r="B166"/>
-      <c r="C166"/>
-      <c r="D166"/>
-      <c r="E166"/>
+      <c r="B166">
+        <v>4</v>
+      </c>
+      <c r="C166" t="s">
+        <v>0</v>
+      </c>
+      <c r="D166">
+        <v>3</v>
+      </c>
+      <c r="E166">
+        <v>23000</v>
+      </c>
       <c r="F166"/>
       <c r="G166">
-        <f>SUM(G164,G159,G152)</f>
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167"/>
+      <c r="B167"/>
+      <c r="C167"/>
+      <c r="D167"/>
+      <c r="E167"/>
+      <c r="F167"/>
+      <c r="G167">
+        <f>SUM(G163:G166)</f>
+        <v>100700</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168"/>
+      <c r="B168"/>
+      <c r="C168"/>
+      <c r="D168"/>
+      <c r="E168"/>
+      <c r="F168"/>
+      <c r="G168"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169"/>
+      <c r="B169"/>
+      <c r="C169"/>
+      <c r="D169"/>
+      <c r="E169"/>
+      <c r="F169"/>
+      <c r="G169">
+        <f>SUM(G167,G162,G155)</f>
         <v>879100</v>
       </c>
     </row>
@@ -6929,7 +7197,7 @@
   <mergeCells count="6">
     <mergeCell ref="A99:L99"/>
     <mergeCell ref="A109:L109"/>
-    <mergeCell ref="A119:L119"/>
+    <mergeCell ref="A122:L122"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A34:L34"/>
     <mergeCell ref="A90:L90"/>
